--- a/data/trans_bre/P2A_fisi_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.727967380952919</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.58448239125375</v>
+        <v>1.584482391253747</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07893773888997248</v>
@@ -649,7 +649,7 @@
         <v>0.2374341265252735</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.09547687593806202</v>
+        <v>0.09547687593806184</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.370440279861189</v>
+        <v>-2.794666542293809</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.778546377888482</v>
+        <v>-1.914499038033093</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.5445675804332173</v>
+        <v>-0.4284683179673932</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.434539314046353</v>
+        <v>-2.766692606263445</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.205302159208036</v>
+        <v>-0.2362118747100715</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1641496513711445</v>
+        <v>-0.1747212967962348</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.05650529837669875</v>
+        <v>-0.05628908675878639</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.172975245887732</v>
+        <v>-0.1440471878711563</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.787857014568011</v>
+        <v>3.935868793522575</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.729662959048409</v>
+        <v>3.580302469623722</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.03906562432913</v>
+        <v>3.96481114507305</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.523109498840668</v>
+        <v>5.479042538074549</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4737155884893512</v>
+        <v>0.4809982035335162</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4634336170736391</v>
+        <v>0.4429368260095621</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6638326551462401</v>
+        <v>0.6600168634693756</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3801993450304458</v>
+        <v>0.3801024272654823</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.553899005105079</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.4401510851142848</v>
+        <v>-0.440151085114282</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1015278197028562</v>
@@ -749,7 +749,7 @@
         <v>0.3400406779663736</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.0321038027010741</v>
+        <v>-0.03210380270107389</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.378731825624279</v>
+        <v>-2.508205028695774</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.9760115219010762</v>
+        <v>-1.032566917716757</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.4429510381796248</v>
+        <v>-0.5903131466633497</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.361863485142595</v>
+        <v>-3.652804739698591</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3729764092265467</v>
+        <v>-0.3894830018281818</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.107124646198618</v>
+        <v>-0.1103888309954144</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07983302200052898</v>
+        <v>-0.1101668188387274</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2127565767643401</v>
+        <v>-0.2328976946462584</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.463067362122959</v>
+        <v>1.289253921340161</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.254957793921529</v>
+        <v>4.203025528060873</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.920884588860715</v>
+        <v>3.862519014379431</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.378114425769368</v>
+        <v>2.402815236562527</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3413583540906023</v>
+        <v>0.2861719352333759</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6071453547415314</v>
+        <v>0.6139583095928893</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.125717112242048</v>
+        <v>1.047599208967862</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1982961490559075</v>
+        <v>0.2066525145127343</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.4208092224443821</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2546969865080226</v>
+        <v>0.2546969865080254</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5343180756824207</v>
@@ -849,7 +849,7 @@
         <v>0.08971081748726734</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.03160752339080725</v>
+        <v>0.03160752339080759</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1854838253625161</v>
+        <v>-0.07746945813745983</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.243953788564287</v>
+        <v>-1.171100781626903</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.670523873967992</v>
+        <v>-1.885252841390768</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.880122477006089</v>
+        <v>-2.148903931502995</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.0784991927803864</v>
+        <v>-0.02743466768775626</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.207531146187621</v>
+        <v>-0.1815636753479508</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2934439420870354</v>
+        <v>-0.3408029630678456</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2049828192263149</v>
+        <v>-0.2209434090858637</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.156134476775336</v>
+        <v>3.323480913585684</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.215474177374456</v>
+        <v>3.291377703293914</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.690464635389294</v>
+        <v>2.642618614767254</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.517814417011555</v>
+        <v>2.534677940023689</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.403257891417766</v>
+        <v>1.511049958359933</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7102942596716129</v>
+        <v>0.7393017994905619</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7460279120202619</v>
+        <v>0.761726844634569</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3799555008859854</v>
+        <v>0.3809672887505183</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.9194501045438683</v>
+        <v>-0.9962099202359425</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6227636815646009</v>
+        <v>0.9945464318357929</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.646475257247547</v>
+        <v>-1.888354117850775</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.351870999171794</v>
+        <v>-2.170440500076223</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3125506641077359</v>
+        <v>-0.3615362165950492</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08074637011167098</v>
+        <v>0.118592180642187</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2859931359138705</v>
+        <v>-0.3193755257434931</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2503248637433951</v>
+        <v>-0.2279382908205974</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.933528808505503</v>
+        <v>4.134589432586468</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.614602253049624</v>
+        <v>8.188940925241551</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.216624893253534</v>
+        <v>4.174119032036937</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.183806335557022</v>
+        <v>2.350755086761064</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.408623569662416</v>
+        <v>2.581531586695573</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.447862459053388</v>
+        <v>2.588697990048773</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.222079662981178</v>
+        <v>1.174778564767637</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.312612306279095</v>
+        <v>0.3418345758706073</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.368098936981377</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5615919290618068</v>
+        <v>0.5615919290618082</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2639728533959385</v>
@@ -1049,7 +1049,7 @@
         <v>0.2470145460795748</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.05164005168834309</v>
+        <v>0.05164005168834322</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0835640264926123</v>
+        <v>0.2247447669616842</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2743882969560115</v>
+        <v>0.4127216439275445</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2058064779677165</v>
+        <v>0.09722141603805345</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.8566589629363707</v>
+        <v>-0.8292438648451208</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0139305464473029</v>
+        <v>0.03900155338383853</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0334205455026477</v>
+        <v>0.05106836512094082</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03413796056797223</v>
+        <v>0.01444144412512357</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.07304172462594262</v>
+        <v>-0.06909858051231497</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.408177017585238</v>
+        <v>2.548897281312287</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.137491707490943</v>
+        <v>3.081700745035473</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.572126099975897</v>
+        <v>2.511350727464354</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.920947966276485</v>
+        <v>1.940791124684476</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.553994420248462</v>
+        <v>0.5945610213392685</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.48358853371751</v>
+        <v>0.4624751670109754</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5212687397781212</v>
+        <v>0.5037358704024367</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1887860178795281</v>
+        <v>0.1954874233487455</v>
       </c>
     </row>
     <row r="19">
